--- a/public/files/datos_pyg.xlsx
+++ b/public/files/datos_pyg.xlsx
@@ -1080,8 +1080,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AC617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P335" workbookViewId="0">
-      <selection activeCell="U619" sqref="U619"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
